--- a/Longtan site lithic data-Tools.xlsx
+++ b/Longtan site lithic data-Tools.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭发掘Quina标本数据-2023.8\LT石制品数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭文章-正文&amp;补充材料\龙潭发掘Quina标本数据-2023.8\Lithic-data-Longtan-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07E0C63-2579-4372-AED4-1FE0CCAAF047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324D53E7-0016-407C-B34B-EBF054F20FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{A79940E2-B962-427A-BDAE-26C815DD4F97}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="3" xr2:uid="{A79940E2-B962-427A-BDAE-26C815DD4F97}"/>
   </bookViews>
   <sheets>
     <sheet name="Scrapers" sheetId="4" r:id="rId1"/>
@@ -1244,7 +1244,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1296,6 +1296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0E5AC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,28 +1565,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1590,15 +1596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1619,13 +1616,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,22 +1649,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF346FF-071A-49B4-956E-8F477B084705}">
   <dimension ref="A1:AI84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E84" sqref="E6:E84"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.35"/>
@@ -2020,248 +2026,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="47" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="32" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="36" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AI1" s="26" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="26" t="s">
         <v>72</v>
       </c>
       <c r="L2" s="31" t="s">
         <v>73</v>
       </c>
       <c r="M2" s="31"/>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="38" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="26" t="s">
         <v>72</v>
       </c>
       <c r="V2" s="31" t="s">
         <v>73</v>
       </c>
       <c r="W2" s="31"/>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="38"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="26"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="38"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="31" t="s">
         <v>76</v>
       </c>
       <c r="M3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="38"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="26"/>
       <c r="V3" s="31" t="s">
         <v>76</v>
       </c>
       <c r="W3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="32" t="s">
+      <c r="Z3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="36" t="s">
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AF3" s="36" t="s">
+      <c r="AF3" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" s="36" t="s">
+      <c r="AG3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="38"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="26"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="38"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="31"/>
       <c r="M4" s="34"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="38"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="26"/>
       <c r="V4" s="31"/>
       <c r="W4" s="34"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="38"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="26"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="38"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="31"/>
       <c r="M5" s="35"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
       <c r="Q5" s="14" t="s">
         <v>79</v>
       </c>
@@ -2274,12 +2280,12 @@
       <c r="T5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="U5" s="38"/>
+      <c r="U5" s="26"/>
       <c r="V5" s="31"/>
       <c r="W5" s="35"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
       <c r="AA5" s="14" t="s">
         <v>79</v>
       </c>
@@ -2292,11 +2298,11 @@
       <c r="AD5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="38"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="26"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
@@ -2311,14 +2317,14 @@
       <c r="D6" s="16">
         <v>22.77</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="16">
         <v>25.1</v>
       </c>
       <c r="F6" s="4">
         <f>18.04+17.31+28.97+9.05+28.01+13.4</f>
         <v>114.78</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="54" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -2430,7 +2436,7 @@
         <f>28.22+34.1+31.36+22.33</f>
         <v>116.01</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -2592,7 +2598,7 @@
         <f>24.88+14.03+36.4+24.36+17.27</f>
         <v>116.94</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -2674,7 +2680,7 @@
         <f>21.83+9.19+41.61+6.65+45.61</f>
         <v>124.89</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="6"/>
@@ -2755,7 +2761,7 @@
         <f>24.2+13.67+31.07+14.48</f>
         <v>83.42</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -2837,7 +2843,7 @@
         <f>20.28+45.21+21.89</f>
         <v>87.38000000000001</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="53" t="s">
         <v>154</v>
       </c>
       <c r="H12" s="6"/>
@@ -2949,7 +2955,7 @@
         <f>28.67+20.07+24.05+14.76+36.22</f>
         <v>123.77000000000001</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="53" t="s">
         <v>153</v>
       </c>
       <c r="H13" s="6"/>
@@ -3031,7 +3037,7 @@
         <f>18.97+6.76+12.58+27.97+40.52</f>
         <v>106.80000000000001</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="6"/>
@@ -3105,14 +3111,14 @@
       <c r="D15" s="3">
         <v>16.420000000000002</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="3">
         <v>36.299999999999997</v>
       </c>
       <c r="F15" s="5">
         <f>25.2+30.67+35.63+14.59</f>
         <v>106.09</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -3194,7 +3200,7 @@
         <f>39.59+20.31+31.89+13.16+21.58</f>
         <v>126.53</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="53" t="s">
         <v>154</v>
       </c>
       <c r="H16" s="6"/>
@@ -3276,7 +3282,7 @@
         <f>23.01+32.36+44.68+17.1+48.68</f>
         <v>165.83</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -3357,7 +3363,7 @@
         <f>39.05+33.16+51.37+30.47</f>
         <v>154.04999999999998</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -3438,7 +3444,7 @@
         <f>37.89+7+18.12+24.67+26.88</f>
         <v>114.56</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="6"/>
@@ -3519,7 +3525,7 @@
         <f>36.92+30.42+44.57+6.4</f>
         <v>118.31</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -3600,7 +3606,7 @@
         <f>24.86+43.75+31.43+14.32+47.63</f>
         <v>161.98999999999998</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -3681,7 +3687,7 @@
         <f>45.97+24.42+21.19+23.56+14.78</f>
         <v>129.91999999999999</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H22" s="6"/>
@@ -3762,7 +3768,7 @@
         <f>40.85+24.94+24.6+29.81</f>
         <v>120.20000000000002</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -3836,14 +3842,14 @@
       <c r="D24" s="3">
         <v>26.31</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="3">
         <v>79.400000000000006</v>
       </c>
       <c r="F24" s="5">
         <f>33.94+12.81+45.11+35.22+41.04</f>
         <v>168.12</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H24" s="6"/>
@@ -3918,14 +3924,14 @@
       <c r="D25" s="3">
         <v>28.75</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="3">
         <v>78.5</v>
       </c>
       <c r="F25" s="5">
         <f>50.68+30.86+38.08+43.76</f>
         <v>163.38</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -4006,7 +4012,7 @@
         <f>21.88+21.99+37.53+17.87+24.65</f>
         <v>123.92000000000002</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -4118,7 +4124,7 @@
         <f>31.49+23.03+29.55+45.96</f>
         <v>130.03</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="53" t="s">
         <v>154</v>
       </c>
       <c r="H27" s="6"/>
@@ -4199,7 +4205,7 @@
         <f>37.35+40.93+44.1+28.34</f>
         <v>150.72</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -4280,7 +4286,7 @@
         <f>33.23+38.64+24.05+38.8+44.24</f>
         <v>178.96</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -4362,7 +4368,7 @@
         <f>50.31+21.09+38.69+29.53+31.53</f>
         <v>171.15</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="6"/>
@@ -4443,7 +4449,7 @@
         <f>33.32+37.29+33.19</f>
         <v>103.8</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H31" s="6"/>
@@ -4524,7 +4530,7 @@
         <f>39.76+41.22+41.97</f>
         <v>122.94999999999999</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H32" s="6"/>
@@ -4629,14 +4635,14 @@
       <c r="D33" s="3">
         <v>30.6</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="3">
         <v>47</v>
       </c>
       <c r="F33" s="5">
         <f>42.35+22.15+38.64+28.58</f>
         <v>131.72</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -4747,7 +4753,7 @@
         <f>14.3+16.83+13.81+13.25+38.72</f>
         <v>96.91</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H34" s="6" t="s">
@@ -4829,7 +4835,7 @@
         <f>17.52+24.01+27+12.88+33.4</f>
         <v>114.81</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H35" s="6"/>
@@ -4934,14 +4940,14 @@
       <c r="D36" s="3">
         <v>16.7</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="3">
         <v>39.1</v>
       </c>
       <c r="F36" s="5">
         <f>43.49+12.24+29.12+47.32+18.55</f>
         <v>150.72000000000003</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H36" s="6" t="s">
@@ -5022,7 +5028,7 @@
         <f>40.34+38.87+45.25+11.86</f>
         <v>136.32</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H37" s="6"/>
@@ -5103,7 +5109,7 @@
         <f>21.18+15.32+21.21+9.33</f>
         <v>67.040000000000006</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H38" s="6"/>
@@ -5259,14 +5265,14 @@
       <c r="D40" s="3">
         <v>11.77</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="3">
         <v>52.3</v>
       </c>
       <c r="F40" s="5">
         <f>15.18+8.98+7.53+19.66+10.39</f>
         <v>61.74</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="53" t="s">
         <v>68</v>
       </c>
       <c r="H40" s="6"/>
@@ -5347,7 +5353,7 @@
         <f>18.76+22.74+11.8+25.68+27.05+25.99</f>
         <v>132.01999999999998</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H41" s="6"/>
@@ -5421,14 +5427,14 @@
       <c r="D42" s="3">
         <v>12.2</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="3">
         <v>13.7</v>
       </c>
       <c r="F42" s="5">
         <f>28.77+20.65+29.77+29.23</f>
         <v>108.42</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H42" s="6"/>
@@ -5509,7 +5515,7 @@
         <f>29.85+34.15+21.89+16.41</f>
         <v>102.3</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H43" s="6"/>
@@ -5614,14 +5620,14 @@
       <c r="D44" s="3">
         <v>17.88</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="3">
         <v>30.7</v>
       </c>
       <c r="F44" s="5">
         <f>24.03+39.46+45.39</f>
         <v>108.88</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H44" s="6"/>
@@ -5733,7 +5739,7 @@
         <f>25.3+20.66+27.3+30.62</f>
         <v>103.88000000000001</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H45" s="6"/>
@@ -5814,7 +5820,7 @@
         <f>33.98+41.9+46.25</f>
         <v>122.13</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="56" t="s">
         <v>123</v>
       </c>
       <c r="H46" s="6" t="s">
@@ -5926,7 +5932,7 @@
         <f>36.1+27.55+13.84+50.46</f>
         <v>127.95000000000002</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H47" s="6" t="s">
@@ -6007,7 +6013,7 @@
         <f>36.94+18.79+10.58+34.86</f>
         <v>101.17</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H48" s="6"/>
@@ -6088,7 +6094,7 @@
         <f>53.64+38.66+50.28+52.24</f>
         <v>194.82</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="6" t="s">
@@ -6169,7 +6175,7 @@
         <f>62.3+22.3+60.26+23.97+43.6+26.17</f>
         <v>238.59999999999997</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H50" s="6" t="s">
@@ -6250,7 +6256,7 @@
         <f>13.1+62.7+21.69+25.3</f>
         <v>122.78999999999999</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H51" s="6"/>
@@ -6331,7 +6337,7 @@
         <f>22.52+9.35+17.32+11.3+9.49</f>
         <v>69.97999999999999</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H52" s="6"/>
@@ -6412,7 +6418,7 @@
         <f>14.24+50+37.69+43.01</f>
         <v>144.94</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H53" s="6" t="s">
@@ -6488,14 +6494,14 @@
       <c r="D54" s="3">
         <v>13</v>
       </c>
-      <c r="E54" s="55">
+      <c r="E54" s="3">
         <v>9.3000000000000007</v>
       </c>
       <c r="F54" s="5">
         <f>17.62+17.37+8.27+11.99+28.38</f>
         <v>83.63000000000001</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H54" s="6"/>
@@ -6578,7 +6584,7 @@
         <f>21.52+31.33+24.34+10+14.78+15.4</f>
         <v>117.37</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H55" s="6" t="s">
@@ -6661,7 +6667,7 @@
         <f>48.75+18.26+27.28+14.06+59.47</f>
         <v>167.82</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H56" s="6" t="s">
@@ -6737,14 +6743,14 @@
       <c r="D57" s="3">
         <v>22</v>
       </c>
-      <c r="E57" s="55">
+      <c r="E57" s="3">
         <v>28.2</v>
       </c>
       <c r="F57" s="5">
         <f>54.07+18.95+36.16+26.13</f>
         <v>135.31</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H57" s="6" t="s">
@@ -6827,7 +6833,7 @@
         <f>36.38+35.22+8.84+41.84</f>
         <v>122.28</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H58" s="6" t="s">
@@ -6903,14 +6909,14 @@
       <c r="D59" s="3">
         <v>13</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="3">
         <v>9.4</v>
       </c>
       <c r="F59" s="5">
         <f>15.26+12.83+7.05+19.95+26.78</f>
         <v>81.87</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H59" s="6"/>
@@ -6994,7 +7000,7 @@
         <f>24.34+23.45+14+14.37+20.58</f>
         <v>96.74</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H60" s="6"/>
@@ -7077,7 +7083,7 @@
         <f>23.14+24.99+19.85+25.31</f>
         <v>93.289999999999992</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H61" s="6"/>
@@ -7161,7 +7167,7 @@
         <f>12.64+16.23+21.43+10.63+14.27</f>
         <v>75.2</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H62" s="6"/>
@@ -7244,7 +7250,7 @@
         <f>19.51+8+14.66+43.4+50.7</f>
         <v>136.26999999999998</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="56" t="s">
         <v>65</v>
       </c>
       <c r="H63" s="6"/>
@@ -7328,7 +7334,7 @@
         <f>28.37+18.12+16.6+40.77</f>
         <v>103.86000000000001</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H64" s="6" t="s">
@@ -7411,7 +7417,7 @@
         <f>14.73+26.72+35.5+36.52</f>
         <v>113.47</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H65" s="6"/>
@@ -7495,7 +7501,7 @@
         <f>45.03+17.16+21.47+16.2+39.41</f>
         <v>139.26999999999998</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H66" s="6" t="s">
@@ -7579,7 +7585,7 @@
         <f>24.47+26.33+28.66+31.91</f>
         <v>111.36999999999999</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H67" s="6" t="s">
@@ -7655,14 +7661,14 @@
       <c r="D68" s="3">
         <v>18</v>
       </c>
-      <c r="E68" s="55">
+      <c r="E68" s="3">
         <v>22.9</v>
       </c>
       <c r="F68" s="5">
         <f>27.12+20.88+23.03+38.68</f>
         <v>109.71000000000001</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H68" s="6"/>
@@ -7739,14 +7745,14 @@
       <c r="D69" s="3">
         <v>17</v>
       </c>
-      <c r="E69" s="55">
+      <c r="E69" s="3">
         <v>26.8</v>
       </c>
       <c r="F69" s="5">
         <f>19.06+20.32+41.06+44.85</f>
         <v>125.28999999999999</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H69" s="6"/>
@@ -7830,7 +7836,7 @@
         <f>19.6+17.82+38.07+43.36</f>
         <v>118.85000000000001</v>
       </c>
-      <c r="G70" s="20" t="s">
+      <c r="G70" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H70" s="6" t="s">
@@ -7913,7 +7919,7 @@
         <f>20.78+10.76+13.51+28.29+33.68</f>
         <v>107.02000000000001</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H71" s="6" t="s">
@@ -7989,14 +7995,14 @@
       <c r="D72" s="3">
         <v>15</v>
       </c>
-      <c r="E72" s="55">
+      <c r="E72" s="3">
         <v>15</v>
       </c>
       <c r="F72" s="5">
         <f>19.27+23.57+31.93+18.58</f>
         <v>93.350000000000009</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="56" t="s">
         <v>123</v>
       </c>
       <c r="H72" s="6" t="s">
@@ -8079,7 +8085,7 @@
         <f>34.33+17.32+26.6</f>
         <v>78.25</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="53" t="s">
         <v>68</v>
       </c>
       <c r="H73" s="6"/>
@@ -8162,7 +8168,7 @@
         <f>21.51+13.24+12.13+22.67+29.9</f>
         <v>99.450000000000017</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H74" s="6" t="s">
@@ -8246,7 +8252,7 @@
         <f>25.93+31.38+29.17+17.89</f>
         <v>104.37</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H75" s="6" t="s">
@@ -8329,7 +8335,7 @@
         <f>27.69+30.98+11.38+31.09</f>
         <v>101.14</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H76" s="6" t="s">
@@ -8412,7 +8418,7 @@
         <f>15.03+17.91+28.14+39.6</f>
         <v>100.68</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H77" s="6"/>
@@ -8495,7 +8501,7 @@
         <f>21.8+10.27+24.21</f>
         <v>56.28</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="G78" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H78" s="6" t="s">
@@ -8578,7 +8584,7 @@
         <f>38.1+30.41+28.74+36.74</f>
         <v>133.99</v>
       </c>
-      <c r="G79" s="20" t="s">
+      <c r="G79" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H79" s="6" t="s">
@@ -8661,7 +8667,7 @@
         <f>46.9+25.44+52.71</f>
         <v>125.05000000000001</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="6" t="s">
@@ -8744,7 +8750,7 @@
         <f>6+7.11+20.21+15.56+16.94</f>
         <v>65.820000000000007</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="53" t="s">
         <v>154</v>
       </c>
       <c r="H81" s="6"/>
@@ -8825,7 +8831,7 @@
         <f>16.21+8.69+24.92+25.31+28.89</f>
         <v>104.02</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="56" t="s">
         <v>68</v>
       </c>
       <c r="H82" s="6" t="s">
@@ -8906,7 +8912,7 @@
         <f>30.34+37.18+8.25+33.62</f>
         <v>109.38999999999999</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="53" t="s">
         <v>42</v>
       </c>
       <c r="H83" s="6"/>
@@ -8988,7 +8994,7 @@
         <f>23.71+29.05+18.75+8.77+9.59+25.54+21.17</f>
         <v>136.57999999999998</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="G84" s="55" t="s">
         <v>42</v>
       </c>
       <c r="H84" s="13" t="s">
@@ -9058,6 +9064,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AA3:AD4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
     <mergeCell ref="AH1:AH5"/>
     <mergeCell ref="AI1:AI5"/>
     <mergeCell ref="B2:B5"/>
@@ -9074,28 +9102,6 @@
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="K2:K5"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="AA3:AD4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="Z3:Z5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -9113,7 +9119,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E16"/>
+      <selection activeCell="F10" activeCellId="1" sqref="F4:F8 F10:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.35"/>
@@ -9132,47 +9138,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="9" t="s">
         <v>44</v>
       </c>
@@ -9180,23 +9186,23 @@
         <v>45</v>
       </c>
       <c r="I2" s="48"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="32"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="48"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="32"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -9277,7 +9283,7 @@
       <c r="D6" s="3">
         <v>9.7200000000000006</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="5">
         <v>8.8000000000000007</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -9565,13 +9571,13 @@
       <c r="A15" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="6">
         <v>37</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="3">
         <v>36</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="3">
         <v>14</v>
       </c>
       <c r="E15" s="5">
@@ -9607,7 +9613,7 @@
       <c r="D16" s="8">
         <v>21</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="7">
         <v>26.2</v>
       </c>
       <c r="F16" s="24" t="s">
@@ -9629,18 +9635,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -9658,7 +9664,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E4:E19"/>
+      <selection activeCell="F19" activeCellId="1" sqref="F14:F15 F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.35"/>
@@ -9678,81 +9684,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="28" t="s">
         <v>47</v>
       </c>
       <c r="J1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="51"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="23.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -9767,10 +9773,10 @@
       <c r="D4" s="16">
         <v>20.74</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="4">
         <v>88</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="57" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -9807,7 +9813,7 @@
       <c r="E5" s="5">
         <v>37.799999999999997</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -9842,7 +9848,7 @@
       <c r="D6" s="3">
         <v>15.83</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="5">
         <v>63.7</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -9882,7 +9888,7 @@
       <c r="E7" s="5">
         <v>2.9</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="56" t="s">
         <v>153</v>
       </c>
       <c r="G7" s="6"/>
@@ -9919,7 +9925,7 @@
       <c r="E8" s="5">
         <v>15.4</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -9956,7 +9962,7 @@
       <c r="E9" s="5">
         <v>20.5</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="6"/>
@@ -9993,7 +9999,7 @@
       <c r="E10" s="5">
         <v>55.9</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="6"/>
@@ -10031,7 +10037,7 @@
       <c r="E11" s="5">
         <v>11</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="6"/>
@@ -10068,10 +10074,10 @@
       <c r="D12" s="3">
         <v>16.93</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="5">
         <v>38.6</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="6"/>
@@ -10108,7 +10114,7 @@
       <c r="E13" s="5">
         <v>23.4</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="56" t="s">
         <v>153</v>
       </c>
       <c r="G13" s="6"/>
@@ -10145,7 +10151,7 @@
       <c r="E14" s="5">
         <v>31.5</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="56" t="s">
         <v>68</v>
       </c>
       <c r="G14" s="6"/>
@@ -10183,7 +10189,7 @@
       <c r="E15" s="5">
         <v>11</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="56" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="6"/>
@@ -10220,10 +10226,10 @@
       <c r="D16" s="3">
         <v>22.16</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="5">
         <v>43.2</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="6"/>
@@ -10260,7 +10266,7 @@
       <c r="E17" s="5">
         <v>25.8</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="56" t="s">
         <v>263</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -10335,7 +10341,7 @@
       <c r="E19" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="58" t="s">
         <v>264</v>
       </c>
       <c r="G19" s="13" t="s">
@@ -10388,8 +10394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF54B827-BDB6-412B-A24C-B6FB14E0ABEA}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F82" sqref="F2:F82"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.35"/>
@@ -10425,7 +10431,7 @@
       <c r="A2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="57" t="s">
         <v>263</v>
       </c>
       <c r="C2" s="12">
@@ -10445,7 +10451,7 @@
       <c r="A3" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C3" s="6">
@@ -10465,7 +10471,7 @@
       <c r="A4" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C4" s="6">
@@ -10505,7 +10511,7 @@
       <c r="A6" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C6" s="6">
@@ -10525,7 +10531,7 @@
       <c r="A7" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C7" s="6">
@@ -10545,7 +10551,7 @@
       <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C8" s="6">
@@ -10565,7 +10571,7 @@
       <c r="A9" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C9" s="6">
@@ -10585,7 +10591,7 @@
       <c r="A10" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C10" s="6">
@@ -10605,7 +10611,7 @@
       <c r="A11" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C11" s="6">
@@ -10625,7 +10631,7 @@
       <c r="A12" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C12" s="6">
@@ -10645,7 +10651,7 @@
       <c r="A13" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C13" s="6">
@@ -10665,7 +10671,7 @@
       <c r="A14" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C14" s="6">
@@ -10685,7 +10691,7 @@
       <c r="A15" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C15" s="6">
@@ -10705,7 +10711,7 @@
       <c r="A16" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C16" s="6">
@@ -10725,7 +10731,7 @@
       <c r="A17" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C17" s="6">
@@ -10745,7 +10751,7 @@
       <c r="A18" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C18" s="6">
@@ -10765,7 +10771,7 @@
       <c r="A19" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C19" s="6">
@@ -10785,7 +10791,7 @@
       <c r="A20" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C20" s="6">
@@ -10805,7 +10811,7 @@
       <c r="A21" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C21" s="6">
@@ -10825,7 +10831,7 @@
       <c r="A22" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C22" s="6">
@@ -10845,7 +10851,7 @@
       <c r="A23" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C23" s="6">
@@ -10865,7 +10871,7 @@
       <c r="A24" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C24" s="6">
@@ -10885,7 +10891,7 @@
       <c r="A25" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C25" s="6">
@@ -10905,7 +10911,7 @@
       <c r="A26" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C26" s="6">
@@ -10925,7 +10931,7 @@
       <c r="A27" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C27" s="6">
@@ -10945,7 +10951,7 @@
       <c r="A28" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C28" s="6">
@@ -10965,7 +10971,7 @@
       <c r="A29" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C29" s="6">
@@ -10985,7 +10991,7 @@
       <c r="A30" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C30" s="6">
@@ -11005,7 +11011,7 @@
       <c r="A31" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="56" t="s">
         <v>153</v>
       </c>
       <c r="C31" s="6">
@@ -11025,7 +11031,7 @@
       <c r="A32" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="6">
@@ -11045,7 +11051,7 @@
       <c r="A33" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C33" s="6">
@@ -11065,7 +11071,7 @@
       <c r="A34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C34" s="6">
@@ -11085,7 +11091,7 @@
       <c r="A35" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C35" s="6">
@@ -11105,7 +11111,7 @@
       <c r="A36" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C36" s="6">
@@ -11125,7 +11131,7 @@
       <c r="A37" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C37" s="6">
@@ -11145,7 +11151,7 @@
       <c r="A38" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C38" s="6">
@@ -11165,7 +11171,7 @@
       <c r="A39" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C39" s="6">
@@ -11185,7 +11191,7 @@
       <c r="A40" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C40" s="6">
@@ -11205,7 +11211,7 @@
       <c r="A41" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="56" t="s">
         <v>153</v>
       </c>
       <c r="C41" s="6">
@@ -11225,7 +11231,7 @@
       <c r="A42" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C42" s="6">
@@ -11245,7 +11251,7 @@
       <c r="A43" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C43" s="6">
@@ -11265,7 +11271,7 @@
       <c r="A44" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C44" s="6">
@@ -11285,7 +11291,7 @@
       <c r="A45" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C45" s="6">
@@ -11305,7 +11311,7 @@
       <c r="A46" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C46" s="6">
@@ -11325,7 +11331,7 @@
       <c r="A47" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C47" s="6">
@@ -11345,7 +11351,7 @@
       <c r="A48" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C48" s="6">
@@ -11365,7 +11371,7 @@
       <c r="A49" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C49" s="6">
@@ -11385,7 +11391,7 @@
       <c r="A50" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C50" s="6">
@@ -11405,7 +11411,7 @@
       <c r="A51" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C51" s="6">
@@ -11425,7 +11431,7 @@
       <c r="A52" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C52" s="6">
@@ -11445,7 +11451,7 @@
       <c r="A53" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C53" s="6">
@@ -11465,7 +11471,7 @@
       <c r="A54" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C54" s="6">
@@ -11485,7 +11491,7 @@
       <c r="A55" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C55" s="6">
@@ -11505,7 +11511,7 @@
       <c r="A56" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C56" s="6">
@@ -11525,7 +11531,7 @@
       <c r="A57" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C57" s="6">
@@ -11545,7 +11551,7 @@
       <c r="A58" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="56" t="s">
         <v>153</v>
       </c>
       <c r="C58" s="6">
@@ -11565,7 +11571,7 @@
       <c r="A59" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C59" s="6">
@@ -11585,7 +11591,7 @@
       <c r="A60" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C60" s="6">
@@ -11605,7 +11611,7 @@
       <c r="A61" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C61" s="6">
@@ -11625,7 +11631,7 @@
       <c r="A62" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C62" s="6">
@@ -11645,7 +11651,7 @@
       <c r="A63" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C63" s="6">
@@ -11665,7 +11671,7 @@
       <c r="A64" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C64" s="6">
@@ -11685,7 +11691,7 @@
       <c r="A65" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C65" s="6">
@@ -11705,7 +11711,7 @@
       <c r="A66" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="56" t="s">
         <v>153</v>
       </c>
       <c r="C66" s="6">
@@ -11725,7 +11731,7 @@
       <c r="A67" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C67" s="6">
@@ -11745,7 +11751,7 @@
       <c r="A68" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C68" s="6">
@@ -11765,7 +11771,7 @@
       <c r="A69" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C69" s="6">
@@ -11785,7 +11791,7 @@
       <c r="A70" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C70" s="6">
@@ -11805,7 +11811,7 @@
       <c r="A71" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C71" s="6">
@@ -11825,7 +11831,7 @@
       <c r="A72" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C72" s="6">
@@ -11845,7 +11851,7 @@
       <c r="A73" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C73" s="6">
@@ -11865,7 +11871,7 @@
       <c r="A74" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C74" s="6">
@@ -11885,7 +11891,7 @@
       <c r="A75" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="53" t="s">
         <v>65</v>
       </c>
       <c r="C75" s="6">
@@ -11905,7 +11911,7 @@
       <c r="A76" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="56" t="s">
         <v>153</v>
       </c>
       <c r="C76" s="6">
@@ -11925,7 +11931,7 @@
       <c r="A77" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C77" s="6">
@@ -11945,7 +11951,7 @@
       <c r="A78" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C78" s="6">
@@ -11965,7 +11971,7 @@
       <c r="A79" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C79" s="6">
@@ -11985,7 +11991,7 @@
       <c r="A80" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="56" t="s">
         <v>153</v>
       </c>
       <c r="C80" s="6">
@@ -12005,7 +12011,7 @@
       <c r="A81" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C81" s="6">
@@ -12025,7 +12031,7 @@
       <c r="A82" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="58" t="s">
         <v>153</v>
       </c>
       <c r="C82" s="13">
